--- a/Week8/Day2/Exercises/SingleIFBeetleLength.xlsx
+++ b/Week8/Day2/Exercises/SingleIFBeetleLength.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DI_Bootcamp\Week8\Day2\Exercises\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E78824-CF25-43EC-B2E1-436CEC52040E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Beetle Length Study of School Playing Fields</t>
   </si>
@@ -95,18 +115,24 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>EXERCISE_FORMULA_C4: =IF(B4 &gt; $B$21; "LONG"; "SHORT")</t>
+  </si>
+  <si>
+    <t>EXERCISE_FORMULA_D4: =IF(B4 &gt; $B$21; "This sample is " &amp; ROUND(B4 - $B$21; 2) &amp; " longer than average"; "")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -114,30 +140,30 @@
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -147,7 +173,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -163,7 +189,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -177,62 +209,66 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -422,39 +458,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.86"/>
-    <col customWidth="1" min="2" max="2" width="7.43"/>
-    <col customWidth="1" min="3" max="3" width="7.71"/>
-    <col customWidth="1" min="4" max="4" width="50.57"/>
-    <col customWidth="1" min="5" max="5" width="3.57"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col min="1" max="1" width="7.84375" customWidth="1"/>
+    <col min="2" max="2" width="7.4609375" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" customWidth="1"/>
+    <col min="4" max="4" width="50.53515625" customWidth="1"/>
+    <col min="5" max="5" width="3.53515625" customWidth="1"/>
+    <col min="6" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -471,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
+    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -479,11 +517,11 @@
         <v>20.7</v>
       </c>
       <c r="C4" s="8" t="str">
-        <f t="shared" ref="C4:C20" si="1">if(B4&gt;$B$21,"LONG","SHORT")</f>
+        <f t="shared" ref="C4:C20" si="0">IF(B4&gt;$B$21,"LONG","SHORT")</f>
         <v>LONG</v>
       </c>
       <c r="D4" s="8" t="str">
-        <f t="shared" ref="D4:D20" si="2">if(C4 = "LONG","This sample is " &amp; ROUND(B4-$B$21,2) &amp; " longer than average", "")</f>
+        <f t="shared" ref="D4:D20" si="1">IF(C4 = "LONG","This sample is " &amp; ROUND(B4-$B$21,2) &amp; " longer than average", "")</f>
         <v>This sample is 14.01 longer than average</v>
       </c>
       <c r="E4" s="9"/>
@@ -511,7 +549,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
+    <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -519,15 +557,17 @@
         <v>6.1</v>
       </c>
       <c r="C5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D5" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -549,7 +589,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
+    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -557,17 +597,14 @@
         <v>2.9</v>
       </c>
       <c r="C6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -589,7 +626,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
+    <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -597,15 +634,14 @@
         <v>3.5</v>
       </c>
       <c r="C7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D7" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -627,7 +663,7 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" ht="18.0" customHeight="1">
+    <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -635,17 +671,14 @@
         <v>3.6</v>
       </c>
       <c r="C8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D8" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -667,7 +700,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" ht="18.0" customHeight="1">
+    <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -675,16 +708,16 @@
         <v>3.8</v>
       </c>
       <c r="C9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>15</v>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -707,7 +740,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
+    <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -715,11 +748,11 @@
         <v>6.9</v>
       </c>
       <c r="C10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>LONG</v>
+      </c>
+      <c r="D10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>LONG</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f t="shared" si="2"/>
         <v>This sample is 0.21 longer than average</v>
       </c>
       <c r="E10" s="9"/>
@@ -745,7 +778,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" ht="18.0" customHeight="1">
+    <row r="11" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -753,15 +786,17 @@
         <v>8.1</v>
       </c>
       <c r="C11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>LONG</v>
+      </c>
+      <c r="D11" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>LONG</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f t="shared" si="2"/>
         <v>This sample is 1.41 longer than average</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -783,7 +818,7 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" ht="18.0" customHeight="1">
+    <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -791,15 +826,17 @@
         <v>5.3</v>
       </c>
       <c r="C12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D12" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -821,7 +858,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" ht="18.0" customHeight="1">
+    <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -829,15 +866,17 @@
         <v>5.2</v>
       </c>
       <c r="C13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D13" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D13" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -859,7 +898,7 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" ht="18.0" customHeight="1">
+    <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -867,11 +906,11 @@
         <v>4.7</v>
       </c>
       <c r="C14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D14" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E14" s="9"/>
@@ -897,19 +936,19 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" ht="18.0" customHeight="1">
+    <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D15" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E15" s="9"/>
@@ -935,7 +974,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" ht="18.0" customHeight="1">
+    <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
@@ -943,11 +982,11 @@
         <v>7.4</v>
       </c>
       <c r="C16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>LONG</v>
+      </c>
+      <c r="D16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>LONG</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <f t="shared" si="2"/>
         <v>This sample is 0.71 longer than average</v>
       </c>
       <c r="E16" s="9"/>
@@ -973,19 +1012,19 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" ht="18.0" customHeight="1">
+    <row r="17" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="10">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>LONG</v>
+      </c>
+      <c r="D17" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>LONG</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f t="shared" si="2"/>
         <v>This sample is 2.01 longer than average</v>
       </c>
       <c r="E17" s="9"/>
@@ -1011,7 +1050,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" ht="18.0" customHeight="1">
+    <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -1019,11 +1058,11 @@
         <v>6.2</v>
       </c>
       <c r="C18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SHORT</v>
+      </c>
+      <c r="D18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>SHORT</v>
-      </c>
-      <c r="D18" s="8" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E18" s="9"/>
@@ -1049,7 +1088,7 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" ht="18.0" customHeight="1">
+    <row r="19" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1057,11 +1096,11 @@
         <v>7.8</v>
       </c>
       <c r="C19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>LONG</v>
+      </c>
+      <c r="D19" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>LONG</v>
-      </c>
-      <c r="D19" s="8" t="str">
-        <f t="shared" si="2"/>
         <v>This sample is 1.11 longer than average</v>
       </c>
       <c r="E19" s="9"/>
@@ -1087,19 +1126,19 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" ht="18.0" customHeight="1">
+    <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="10">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>LONG</v>
+      </c>
+      <c r="D20" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>LONG</v>
-      </c>
-      <c r="D20" s="8" t="str">
-        <f t="shared" si="2"/>
         <v>This sample is 1.51 longer than average</v>
       </c>
       <c r="E20" s="9"/>
@@ -1125,13 +1164,13 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
     </row>
-    <row r="21" ht="18.0" customHeight="1">
+    <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="13">
         <f>AVERAGE(B4:B20)</f>
-        <v>6.688235294</v>
+        <v>6.6882352941176473</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1158,1589 +1197,1587 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="222" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>